--- a/zDocs/ルート定義.xlsx
+++ b/zDocs/ルート定義.xlsx
@@ -1152,9 +1152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bin/rails g controller errors/not_found</t>
-  </si>
-  <si>
     <t>bin/rails g controller management/sessions</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1394,6 +1391,10 @@
   </si>
   <si>
     <t>app/views/management/top/index.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bin/rails g controller errors</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1866,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1924,7 +1925,7 @@
         <v>201</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
@@ -1961,10 +1962,10 @@
         <v>203</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
@@ -2002,11 +2003,11 @@
         <v>get '/login' =&gt; 'sessions#new', as: :login</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
@@ -2044,7 +2045,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
@@ -2080,7 +2081,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
@@ -2115,11 +2116,11 @@
         <v>188</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
@@ -2154,7 +2155,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
@@ -2189,7 +2190,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="3"/>
       <c r="O9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
@@ -2224,7 +2225,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="3"/>
       <c r="O10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
@@ -2257,7 +2258,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="3"/>
       <c r="O11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
@@ -2290,7 +2291,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="3"/>
       <c r="O12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
@@ -2324,12 +2325,12 @@
         <v>patch '/users/:id' =&gt; 'users#update'</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="3"/>
       <c r="O13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
@@ -2364,11 +2365,11 @@
         <v>189</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
@@ -2403,7 +2404,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
@@ -2438,7 +2439,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
@@ -2473,7 +2474,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
@@ -2506,7 +2507,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
       <c r="O18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
@@ -2539,7 +2540,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="3"/>
       <c r="O19" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
@@ -2573,12 +2574,12 @@
         <v>patch '/places/:id' =&gt; 'places#update'</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="3"/>
       <c r="O20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
@@ -2613,11 +2614,11 @@
         <v>190</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
@@ -2652,7 +2653,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="3"/>
       <c r="O22" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
@@ -2687,7 +2688,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="3"/>
       <c r="O23" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
@@ -2722,7 +2723,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="O24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
@@ -2755,7 +2756,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="3"/>
       <c r="O25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
@@ -2788,7 +2789,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
       <c r="O26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
@@ -2822,12 +2823,12 @@
         <v>patch '/tasks/:id' =&gt; 'tasks#update'</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="3"/>
       <c r="O27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
@@ -2862,11 +2863,11 @@
         <v>191</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
@@ -2901,7 +2902,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="3"/>
       <c r="O29" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
@@ -2936,7 +2937,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="3"/>
       <c r="O30" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
@@ -2971,7 +2972,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="3"/>
       <c r="O31" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
@@ -3004,7 +3005,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="3"/>
       <c r="O32" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
@@ -3037,7 +3038,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="3"/>
       <c r="O33" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
@@ -3071,12 +3072,12 @@
         <v>patch '/groups/:id' =&gt; 'groups#update'</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="3"/>
       <c r="O34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
@@ -3111,11 +3112,11 @@
         <v>192</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
@@ -3150,7 +3151,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="3"/>
       <c r="O36" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
@@ -3185,7 +3186,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="3"/>
       <c r="O37" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
@@ -3220,7 +3221,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="3"/>
       <c r="O38" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
@@ -3253,7 +3254,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="3"/>
       <c r="O39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
@@ -3286,7 +3287,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="3"/>
       <c r="O40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
@@ -3320,12 +3321,12 @@
         <v>patch '/projects/:id' =&gt; 'projects#update'</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="3"/>
       <c r="O41" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
@@ -3363,7 +3364,7 @@
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
@@ -3401,11 +3402,11 @@
         <v>get '/login' =&gt; 'sessions#new', as: :login</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
@@ -3443,7 +3444,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="3"/>
       <c r="O44" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
@@ -3479,7 +3480,7 @@
       <c r="M45" s="11"/>
       <c r="N45" s="3"/>
       <c r="O45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
@@ -3503,7 +3504,7 @@
         <v>/task</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="str">
@@ -3511,14 +3512,14 @@
         <v>get '/task' =&gt; 'tasks#index'</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
@@ -3542,7 +3543,7 @@
         <v>/task/:id</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="str">
@@ -3551,11 +3552,11 @@
       </c>
       <c r="K47" s="11"/>
       <c r="M47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
@@ -3590,11 +3591,11 @@
         <v>193</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
@@ -3629,7 +3630,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="3"/>
       <c r="O49" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
@@ -3664,7 +3665,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="3"/>
       <c r="O50" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
@@ -3699,7 +3700,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="3"/>
       <c r="O51" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
@@ -3732,7 +3733,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="3"/>
       <c r="O52" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
@@ -3765,7 +3766,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="3"/>
       <c r="O53" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
@@ -3799,12 +3800,12 @@
         <v>patch '/results/:id' =&gt; 'results#update'</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="3"/>
       <c r="O54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
@@ -3839,11 +3840,11 @@
         <v>200</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
@@ -3878,7 +3879,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="3"/>
       <c r="O56" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
@@ -3912,12 +3913,12 @@
         <v>patch '/user' =&gt; 'users#update'</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="3"/>
       <c r="O57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
@@ -3949,11 +3950,11 @@
         <v>root 'errors#not_found'</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
@@ -3987,7 +3988,7 @@
       <c r="M59" s="11"/>
       <c r="N59" s="3"/>
       <c r="O59" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
